--- a/output/results/ensemble_forecasts.xlsx
+++ b/output/results/ensemble_forecasts.xlsx
@@ -510,52 +510,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3973.882030076302</v>
+        <v>3995.389925977693</v>
       </c>
       <c r="C2" t="n">
-        <v>4014.017962523879</v>
+        <v>4053.268749044418</v>
       </c>
       <c r="D2" t="n">
-        <v>4104.780476490922</v>
+        <v>4180.693429832928</v>
       </c>
       <c r="E2" t="n">
-        <v>4111.710354134867</v>
+        <v>4240.799827574103</v>
       </c>
       <c r="F2" t="n">
-        <v>4105.7030601934</v>
+        <v>4241.831500631158</v>
       </c>
       <c r="G2" t="n">
-        <v>4134.645830155411</v>
+        <v>4255.609848486722</v>
       </c>
       <c r="H2" t="n">
-        <v>4133.747631422683</v>
+        <v>4230.847049112921</v>
       </c>
       <c r="I2" t="n">
-        <v>4130.288019626443</v>
+        <v>4207.228145100818</v>
       </c>
       <c r="J2" t="n">
-        <v>4083.461489979635</v>
+        <v>4156.109314321643</v>
       </c>
       <c r="K2" t="n">
-        <v>4093.269416642935</v>
+        <v>4170.713853978272</v>
       </c>
       <c r="L2" t="n">
-        <v>4135.763014340217</v>
+        <v>4242.409195173918</v>
       </c>
       <c r="M2" t="n">
-        <v>4174.551961088507</v>
+        <v>4329.325197791506</v>
       </c>
       <c r="N2" t="n">
         <v>0.1732404597455083</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SARIMA</t>
+          <t>SARIMA,HoltWinters</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.469,0.531</t>
         </is>
       </c>
     </row>
@@ -566,52 +566,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510.5651331713702</v>
+        <v>499.9031456191742</v>
       </c>
       <c r="C3" t="n">
-        <v>499.3737523197722</v>
+        <v>505.5188251776644</v>
       </c>
       <c r="D3" t="n">
-        <v>444.0439933337868</v>
+        <v>465.7900239232905</v>
       </c>
       <c r="E3" t="n">
-        <v>500.8117135292803</v>
+        <v>499.6405394087126</v>
       </c>
       <c r="F3" t="n">
-        <v>503.4140360909875</v>
+        <v>502.1309214046864</v>
       </c>
       <c r="G3" t="n">
-        <v>575.5043931673139</v>
+        <v>535.5789076326454</v>
       </c>
       <c r="H3" t="n">
-        <v>495.8363008493232</v>
+        <v>500.8516311995988</v>
       </c>
       <c r="I3" t="n">
-        <v>510.6535500627647</v>
+        <v>501.0773205430201</v>
       </c>
       <c r="J3" t="n">
-        <v>500.5657767015995</v>
+        <v>497.5387710059255</v>
       </c>
       <c r="K3" t="n">
-        <v>466.5467886641719</v>
+        <v>486.4460994646574</v>
       </c>
       <c r="L3" t="n">
-        <v>535.891814228208</v>
+        <v>530.2733620349561</v>
       </c>
       <c r="M3" t="n">
-        <v>524.1651207733598</v>
+        <v>508.8953660002381</v>
       </c>
       <c r="N3" t="n">
         <v>0.1260561155724138</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>SARIMA</t>
+          <t>SARIMA,HoltWinters</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.243,0.757</t>
         </is>
       </c>
     </row>
@@ -622,52 +622,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1462.878384988225</v>
+        <v>1444.818433061002</v>
       </c>
       <c r="C4" t="n">
-        <v>1404.004013805511</v>
+        <v>1418.837290850276</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.697424965717</v>
+        <v>1447.93346689259</v>
       </c>
       <c r="E4" t="n">
-        <v>1458.8315827368</v>
+        <v>1460.794145209084</v>
       </c>
       <c r="F4" t="n">
-        <v>1485.149199503422</v>
+        <v>1486.373717922401</v>
       </c>
       <c r="G4" t="n">
-        <v>1556.650597162273</v>
+        <v>1548.306222552455</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.691777757771</v>
+        <v>1554.192342914302</v>
       </c>
       <c r="I4" t="n">
-        <v>1556.219375247213</v>
+        <v>1546.435418457998</v>
       </c>
       <c r="J4" t="n">
-        <v>1603.310062873772</v>
+        <v>1590.268302124496</v>
       </c>
       <c r="K4" t="n">
-        <v>1647.019272000502</v>
+        <v>1633.923253549501</v>
       </c>
       <c r="L4" t="n">
-        <v>1642.523719238411</v>
+        <v>1619.042521075795</v>
       </c>
       <c r="M4" t="n">
-        <v>1729.790836124185</v>
+        <v>1698.626939306849</v>
       </c>
       <c r="N4" t="n">
         <v>0.1911303102006136</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>SARIMA</t>
+          <t>SARIMA,HoltWinters</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.506,0.494</t>
         </is>
       </c>
     </row>
